--- a/Study Materials.xlsx
+++ b/Study Materials.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Study projects\UI-Project\UI-PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\professional\projects\UI project\UI-PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F771EADA-9489-4007-AE93-71902912C0C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BBABD705-86FB-4A20-B263-3A111EEDD7E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="UI Study Materials" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>UI Subject</t>
   </si>
@@ -84,12 +83,15 @@
   </si>
   <si>
     <t>Closed</t>
+  </si>
+  <si>
+    <t>progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,11 +469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B5D761-6B58-4F9E-A6EA-C1182FF645AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +509,9 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -515,6 +520,9 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -522,6 +530,9 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/Study Materials.xlsx
+++ b/Study Materials.xlsx
@@ -37,9 +37,6 @@
     <t>UI Subject</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>HTML5</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                  Link</t>
   </si>
 </sst>
 </file>
@@ -101,7 +101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,13 +110,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,12 +178,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -473,7 +507,7 @@
   <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,89 +516,99 @@
     <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
+      <c r="B13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
